--- a/Estudio_Sensibilidades/[LDES]Resultados_Valor_LDES.xlsx
+++ b/Estudio_Sensibilidades/[LDES]Resultados_Valor_LDES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignac\Trabajo_Centra\Catedra-LDES\CII-Centra-EDF\SEN\SEN-Files\Electricity Generation\CII-CENTRA-EDF-CHILE\Estudio_Sensibilidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815ED255-B462-46D9-B403-9CB834A67A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9CC9EA-E6B5-44CF-A64B-8642AA122D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="599" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="100">
   <si>
     <t>Sin LDES</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>no se podría operar el sistema si se desprende mas de 0,1 %,</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>División</t>
   </si>
 </sst>
 </file>
@@ -766,7 +772,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,6 +926,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,42 +996,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,6 +1051,9 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -11894,18 +11903,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11956,25 +11965,25 @@
       </c>
     </row>
     <row r="2" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="O2" s="3">
         <v>-5</v>
       </c>
@@ -11986,8 +11995,8 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -12020,7 +12029,7 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -12067,7 +12076,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -12106,7 +12115,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -12145,7 +12154,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -12184,7 +12193,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -12214,7 +12223,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -12250,7 +12259,7 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -12294,7 +12303,7 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -12330,7 +12339,7 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -12366,7 +12375,7 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -12402,7 +12411,7 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
@@ -12477,17 +12486,17 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -12496,117 +12505,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>703.12000000000262</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>307.44000000000233</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>275.97999999999593</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-1009.0200000000004</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-206.31999999999243</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>155.7699999999968</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>1712.1399999999994</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>513.7599999999984</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>120.20999999999913</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.20227731716158209</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>0.17567698839448601</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.12270631494235315</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -12618,7 +12627,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -12874,6 +12883,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="B10:B14"/>
@@ -12890,13 +12906,6 @@
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12941,29 +12950,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -12993,7 +13002,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -13037,7 +13046,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -13073,7 +13082,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -13115,7 +13124,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -13151,7 +13160,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -13178,7 +13187,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -13214,7 +13223,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -13258,7 +13267,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -13294,7 +13303,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -13330,7 +13339,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -13366,7 +13375,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
@@ -13441,17 +13450,17 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -13460,117 +13469,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>558.80000000000291</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>268.25999999999476</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>257.80999999999767</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-1179.5699999999997</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-215.01000000000204</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>-47.849999999998545</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>1738.369999999999</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>483.2699999999968</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>305.65999999999985</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.1861413315034553</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>0.15661433734025043</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.12270589803144999</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -13582,7 +13591,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -13838,6 +13847,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="B10:B14"/>
@@ -13854,13 +13870,6 @@
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13905,29 +13914,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -13957,7 +13966,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -14001,7 +14010,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -14037,7 +14046,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -14079,7 +14088,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -14115,7 +14124,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -14142,7 +14151,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -14178,7 +14187,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -14222,7 +14231,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -14258,7 +14267,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -14294,7 +14303,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -14330,7 +14339,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
@@ -14405,17 +14414,17 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -14424,117 +14433,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>631.83999999999651</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>290.69999999999709</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>268.47999999999593</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-1274.5599999999977</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-243.17000000000189</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>50.489999999997963</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>1906.4000000000015</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>533.87000000000262</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>217.9900000000016</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.19276226272339436</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>0.1722074783185614</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.12170333904497509</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -14546,7 +14555,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -14802,6 +14811,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="B10:B14"/>
@@ -14818,13 +14834,6 @@
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14869,29 +14878,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -14921,7 +14930,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -14965,7 +14974,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -15001,7 +15010,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -15043,7 +15052,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -15079,7 +15088,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -15106,7 +15115,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -15142,7 +15151,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -15186,7 +15195,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -15222,7 +15231,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -15258,7 +15267,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -15294,7 +15303,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
@@ -15369,17 +15378,17 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -15388,117 +15397,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>721.63999999999942</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>447.19000000000233</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>467.87000000000262</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-1516.1100000000006</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-414.48999999999432</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>-31.020000000000437</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>2237.75</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>861.68000000000029</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>498.88999999999942</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.20491647333763041</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>0.33953396554473364</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.31253005931705408</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -15510,7 +15519,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -15766,6 +15775,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="B10:B14"/>
@@ -15782,13 +15798,6 @@
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15833,32 +15842,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="N2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -15891,7 +15900,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -15938,7 +15947,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -15977,7 +15986,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -16019,7 +16028,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -16058,7 +16067,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -16088,7 +16097,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -16127,7 +16136,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -16174,7 +16183,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -16213,7 +16222,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -16252,7 +16261,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="63"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="30" t="s">
         <v>22</v>
       </c>
@@ -16370,17 +16379,17 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -16389,117 +16398,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>583.17999999999302</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>180.69999999999709</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>148.69999999999709</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-1073.5400000000009</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-224.21999999999753</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>5.3600000000005821</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>1656.7199999999975</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>404.91999999999825</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>143.33999999999651</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.18944010602772607</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>8.2078535577205639E-2</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>5.3194153293600638E-2</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -16511,7 +16520,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -16767,6 +16776,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="D19:F19"/>
@@ -16777,19 +16799,6 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16834,29 +16843,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -16886,7 +16895,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -16930,7 +16939,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -16966,7 +16975,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -17008,7 +17017,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -17044,7 +17053,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -17071,7 +17080,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -17107,7 +17116,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -17151,7 +17160,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -17187,7 +17196,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -17223,7 +17232,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -17259,7 +17268,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
@@ -17334,17 +17343,17 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -17353,117 +17362,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>613.92999999999302</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>228.15000000000146</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>225.70999999999913</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-1266.8800000000047</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-246.46999999999753</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>-12.990000000001601</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>1880.8099999999977</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>474.61999999999898</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>238.70000000000073</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.18287128742363151</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>0.13789497860406733</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.11392647853057966</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -17475,7 +17484,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -17731,6 +17740,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="B10:B14"/>
@@ -17747,13 +17763,6 @@
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17798,29 +17807,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -17850,7 +17859,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -17894,7 +17903,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -17933,7 +17942,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -17975,7 +17984,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -18011,7 +18020,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -18040,7 +18049,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -18076,7 +18085,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -18120,7 +18129,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -18159,7 +18168,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -18198,7 +18207,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -18237,7 +18246,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
@@ -18312,17 +18321,17 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -18331,117 +18340,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>632.15256418999343</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>287.23366102</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>268.87882569000067</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-1271.3050467600006</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-275.02227202999711</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>13.825077059998875</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>1903.4576109499976</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>562.25593304999711</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>255.05374863000179</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.19289822624979583</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>0.16720434786303889</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.12235446257633566</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -18453,7 +18462,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -18648,6 +18657,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B10:B14"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:L18"/>
@@ -18661,16 +18680,6 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B10:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18715,32 +18724,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="N2" s="48" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -18773,7 +18782,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -18804,7 +18813,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -18829,7 +18838,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -18853,7 +18862,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -18878,7 +18887,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -18897,7 +18906,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -18919,7 +18928,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -18945,7 +18954,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -18967,7 +18976,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -18989,7 +18998,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -19011,7 +19020,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
@@ -19080,17 +19089,17 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
       <c r="N16" s="3" t="s">
         <v>57</v>
       </c>
@@ -19110,12 +19119,12 @@
       <c r="G17" s="89"/>
       <c r="H17" s="89"/>
       <c r="I17" s="90"/>
-      <c r="J17" s="58">
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>6266.5299999999916</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
@@ -19128,12 +19137,12 @@
       <c r="G18" s="92"/>
       <c r="H18" s="92"/>
       <c r="I18" s="93"/>
-      <c r="J18" s="67">
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>6482.9799999999959</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
@@ -19146,53 +19155,53 @@
       <c r="G19" s="95"/>
       <c r="H19" s="95"/>
       <c r="I19" s="96"/>
-      <c r="J19" s="67">
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>-216.45000000000073</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>1.143308307714761</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -19204,7 +19213,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -19660,12 +19669,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="D4:I14"/>
-    <mergeCell ref="D17:I19"/>
-    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:C21"/>
@@ -19673,11 +19681,12 @@
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="D4:I14"/>
+    <mergeCell ref="D17:I19"/>
+    <mergeCell ref="D21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19687,8 +19696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C12C90D-9AFA-47AC-93E7-C49828E2919C}">
   <dimension ref="A2:AJ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="31.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19704,7 +19713,7 @@
     <col min="12" max="12" width="20.33203125" style="4" customWidth="1"/>
     <col min="13" max="13" width="8.77734375" style="3"/>
     <col min="14" max="16" width="8.77734375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" style="3"/>
+    <col min="17" max="17" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="8.77734375" style="3" customWidth="1"/>
     <col min="20" max="20" width="8.77734375" style="3"/>
     <col min="21" max="21" width="8.77734375" style="3" customWidth="1"/>
@@ -19722,32 +19731,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="N2" s="48" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -19780,7 +19789,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -19811,7 +19820,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -19836,7 +19845,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -19860,7 +19869,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -19885,7 +19894,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -19904,7 +19913,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -19926,7 +19935,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -19952,7 +19961,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -19974,7 +19983,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -19996,7 +20005,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -20018,7 +20027,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
@@ -20087,22 +20096,22 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
       <c r="N16" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
@@ -20117,14 +20126,14 @@
       <c r="G17" s="89"/>
       <c r="H17" s="89"/>
       <c r="I17" s="90"/>
-      <c r="J17" s="58">
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>2455.1000000000058</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
-    </row>
-    <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+    </row>
+    <row r="18" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
@@ -20135,14 +20144,24 @@
       <c r="G18" s="92"/>
       <c r="H18" s="92"/>
       <c r="I18" s="93"/>
-      <c r="J18" s="67">
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>2698.1300000000047</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
-    </row>
-    <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
+      <c r="O18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>J14*1000000</f>
+        <v>6691110000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
@@ -20153,53 +20172,76 @@
       <c r="G19" s="95"/>
       <c r="H19" s="95"/>
       <c r="I19" s="96"/>
-      <c r="J19" s="67">
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>-243.02999999999884</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
-    </row>
-    <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
-    </row>
-    <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
+    </row>
+    <row r="20" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
+      <c r="O20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="97">
+        <f>Q18/P18</f>
+        <v>669111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.44107607398996901</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-    </row>
-    <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
+      <c r="Q21" s="25">
+        <f>Q20/20</f>
+        <v>33455.550000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="25">
+        <f>Q21/365</f>
+        <v>91.659041095890416</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="25">
+        <f>Q22/24</f>
+        <v>3.8191267123287673</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -20211,7 +20253,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -20667,16 +20709,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="D17:I19"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:F2"/>
@@ -20685,6 +20717,16 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="D4:I14"/>
     <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="D17:I19"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20729,32 +20771,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="N2" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -20787,7 +20829,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -20834,7 +20876,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -20873,7 +20915,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -20915,7 +20957,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -20954,7 +20996,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -20981,7 +21023,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -21017,7 +21059,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -21061,7 +21103,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -21097,7 +21139,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -21133,7 +21175,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -21244,17 +21286,17 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -21263,117 +21305,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>157.87999999999738</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>59.619999999988067</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>75.779999999998836</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-489.08000000000175</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-147.44000000000597</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>-29.799999999995634</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>646.95999999999913</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>207.05999999999767</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>105.57999999999811</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.18178677935266654</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>0.15013472337636441</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.147002909796312</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -21385,7 +21427,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -21841,6 +21883,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="D19:F19"/>
@@ -21851,19 +21906,6 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21908,32 +21950,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="N2" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -21966,7 +22008,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -22013,7 +22055,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -22052,7 +22094,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -22094,7 +22136,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -22133,7 +22175,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -22160,7 +22202,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -22196,7 +22238,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -22240,7 +22282,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -22276,7 +22318,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -22312,7 +22354,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -22423,17 +22465,17 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -22442,117 +22484,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>345.22999999999593</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>220.83999999999651</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>248.93000000000029</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-1164.6599999999999</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-454.40000000000146</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>-90.409999999996217</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>1509.8900000000031</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>675.2400000000016</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>339.34000000000015</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.17278086963484743</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>0.27718298545303494</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.28196182817013116</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -22564,7 +22606,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -23020,6 +23062,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="D19:F19"/>
@@ -23030,19 +23085,6 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23087,29 +23129,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -23139,7 +23181,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -23183,7 +23225,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -23219,7 +23261,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -23261,7 +23303,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -23297,7 +23339,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -23324,7 +23366,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -23360,7 +23402,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -23404,7 +23446,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -23440,7 +23482,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -23476,7 +23518,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -23512,7 +23554,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
@@ -23587,17 +23629,17 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -23606,117 +23648,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>632.14999999999418</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>287.26000000000204</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>268.80999999999767</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-1271.3100000000013</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-275.37000000000262</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>8.4100000000034925</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>1903.4599999999991</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>562.63000000000102</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>260.39999999999782</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.1928974437999085</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>0.16728005404020524</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.12205986523057814</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -23728,7 +23770,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -24184,6 +24226,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="B10:B14"/>
@@ -24200,13 +24249,6 @@
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24251,29 +24293,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -24303,7 +24345,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -24347,7 +24389,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -24383,7 +24425,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -24425,7 +24467,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -24461,7 +24503,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -24494,7 +24536,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -24530,7 +24572,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -24574,7 +24616,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -24610,7 +24652,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -24646,7 +24688,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -24682,7 +24724,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
@@ -24757,17 +24799,17 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -24776,117 +24818,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>695.15999999999622</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>341.83999999999651</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>310.34999999999127</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-1351.1399999999994</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-296.32000000000335</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>93.659999999996217</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>2046.2999999999993</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>638.15999999999985</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>216.68999999999869</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.20662596527104757</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>0.22399287080963262</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.15118669498625814</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -24898,7 +24940,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -25354,6 +25396,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="B10:B14"/>
@@ -25370,13 +25419,6 @@
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25426,25 +25468,25 @@
       </c>
     </row>
     <row r="2" spans="2:16" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="N2" s="3">
         <v>-5</v>
       </c>
@@ -25456,8 +25498,8 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -25490,7 +25532,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -25525,7 +25567,7 @@
       <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:16" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
@@ -25552,7 +25594,7 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:16" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
@@ -25585,7 +25627,7 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:16" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
@@ -25612,7 +25654,7 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:16" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
@@ -25633,7 +25675,7 @@
       <c r="L8" s="31"/>
     </row>
     <row r="9" spans="2:16" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
@@ -25660,7 +25702,7 @@
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:16" ht="31.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -25695,7 +25737,7 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:16" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
@@ -25722,7 +25764,7 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="2:16" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
@@ -25749,7 +25791,7 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="2:16" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
@@ -25776,7 +25818,7 @@
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="2:16" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
@@ -25845,17 +25887,17 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -25864,117 +25906,117 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="70">
         <f>D15-E15</f>
         <v>563.90999999999622</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="70">
         <f>G15-H15</f>
         <v>237.35999999999331</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="70">
         <f>J15-K15</f>
         <v>229.04000000000087</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="55">
         <f>D4-E4</f>
         <v>-1077.510000000002</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55">
         <f>G4-H4</f>
         <v>-229.80000000000291</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="67">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55">
         <f>J4-K4</f>
         <v>-4.3800000000046566</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="55">
         <f>D10-E10</f>
         <v>1641.4199999999983</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67">
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55">
         <f>G10-H10</f>
         <v>467.15999999999622</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="67">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>J10-K10</f>
         <v>233.42000000000189</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="76">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64">
         <f>D17/E8</f>
         <v>0.17750043280504768</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="64">
         <f>G17/H9</f>
         <v>0.12338593974174687</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76">
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64">
         <f>J17/K9</f>
         <v>0.10225365191614025</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
@@ -25986,7 +26028,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="3" t="s">
@@ -26442,6 +26484,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="B10:B14"/>
@@ -26458,13 +26507,6 @@
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
